--- a/Clarusway Data Science Bootcamp.xlsx
+++ b/Clarusway Data Science Bootcamp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6EAD98-92EA-4F16-9B5E-A302A4E897F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2286B-4D41-48A3-BC03-87F00DB3D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DFB75CEE-054E-4D58-9670-BFD42D53B94F}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -380,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,18 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -783,29 +771,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BAA48C-6895-4B19-A62C-B2D0B63F9CE7}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -814,280 +802,280 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14" t="s">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14" t="s">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="14" t="s">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="15" t="s">
+    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="15" t="s">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="15" t="s">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="15" t="s">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="14" t="s">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="15" t="s">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="14" t="s">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="15" t="s">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="23">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="14" t="s">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="14" t="s">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="9"/>
     </row>
   </sheetData>
@@ -1105,7 +1093,7 @@
     <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1129,14 +1117,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1161,7 +1149,7 @@
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1173,13 +1161,13 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1191,9 +1179,9 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1205,9 +1193,9 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1219,9 +1207,9 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1233,9 +1221,9 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1247,9 +1235,9 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1261,9 +1249,9 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1275,9 +1263,9 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1289,9 +1277,9 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1301,9 +1289,9 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5"/>
@@ -1313,9 +1301,9 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1327,9 +1315,9 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1341,13 +1329,13 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1361,9 +1349,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1375,9 +1363,9 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1389,9 +1377,9 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1403,9 +1391,9 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1419,9 +1407,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1433,9 +1421,9 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1449,19 +1437,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="23">
         <v>70</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -1469,29 +1457,29 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="5"/>
@@ -1503,9 +1491,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5"/>
@@ -1518,10 +1506,10 @@
       <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
@@ -1530,10 +1518,10 @@
       <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="5"/>
@@ -1554,6 +1542,6 @@
     <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>